--- a/CONTROL GASTOS 2019 3.xlsx
+++ b/CONTROL GASTOS 2019 3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11015"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fbnsilva/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\control_gastos_daem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94FDDF7C-B73D-5349-BB27-84780ACEEE06}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{C46C21E3-35BB-44F4-9B56-0628AE096B38}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{603FC5B0-5C8F-284E-9288-0DC554ACEB89}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="17535" activeTab="1" xr2:uid="{603FC5B0-5C8F-284E-9288-0DC554ACEB89}"/>
   </bookViews>
   <sheets>
     <sheet name="Captura" sheetId="1" r:id="rId1"/>
@@ -20,8 +20,7 @@
   <externalReferences>
     <externalReference r:id="rId4"/>
   </externalReferences>
-  <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -732,14 +731,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="4">
-    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0;[Red]\-&quot;$&quot;#,##0"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0;[Red]\-&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="165" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -885,6 +884,14 @@
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1041,10 +1048,10 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
@@ -1061,7 +1068,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1072,9 +1079,120 @@
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="1" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1096,143 +1214,61 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
     <cellStyle name="Moneda [0]" xfId="1" builtinId="7"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{45570960-406C-4882-96E7-E099A4F7E583}">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <colors>
     <mruColors>
       <color rgb="FF0221B0"/>
@@ -1415,17 +1451,13 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="Hoja1"/>
-      <sheetName val="Hoja2"/>
-      <sheetName val="Hoja3"/>
+      <sheetName val="numletras"/>
     </sheetNames>
     <definedNames>
       <definedName name="NumLetras"/>
     </definedNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="0" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1733,19 +1765,19 @@
   </sheetPr>
   <dimension ref="A1:R36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="16" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15.75" zeroHeight="1"/>
   <cols>
-    <col min="1" max="8" width="10.83203125" customWidth="1"/>
-    <col min="9" max="9" width="3.83203125" customWidth="1"/>
-    <col min="10" max="18" width="10.83203125" customWidth="1"/>
-    <col min="19" max="16384" width="10.83203125" hidden="1"/>
+    <col min="1" max="8" width="10.875" customWidth="1"/>
+    <col min="9" max="9" width="3.875" customWidth="1"/>
+    <col min="10" max="18" width="10.875" customWidth="1"/>
+    <col min="19" max="16384" width="10.875" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="17" thickBot="1">
+    <row r="1" spans="1:18" ht="16.5" thickBot="1">
       <c r="A1" s="8"/>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -1765,33 +1797,33 @@
       <c r="Q1" s="9"/>
       <c r="R1" s="9"/>
     </row>
-    <row r="2" spans="1:18" ht="18" thickTop="1" thickBot="1">
+    <row r="2" spans="1:18" ht="17.25" thickTop="1" thickBot="1">
       <c r="A2" s="9"/>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="41"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="27"/>
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
-      <c r="K2" s="19" t="s">
+      <c r="K2" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
       <c r="N2" s="9"/>
-      <c r="O2" s="19" t="s">
+      <c r="O2" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29"/>
       <c r="R2" s="9"/>
     </row>
-    <row r="3" spans="1:18" ht="28" thickTop="1" thickBot="1">
+    <row r="3" spans="1:18" ht="27.75" thickTop="1" thickBot="1">
       <c r="A3" s="9"/>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
@@ -1804,33 +1836,33 @@
       <c r="J3" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="K3" s="30">
+      <c r="K3" s="67">
         <f ca="1">+TODAY()</f>
-        <v>43413</v>
-      </c>
-      <c r="L3" s="31"/>
-      <c r="M3" s="32"/>
+        <v>43427</v>
+      </c>
+      <c r="L3" s="68"/>
+      <c r="M3" s="69"/>
       <c r="N3" s="16" t="s">
         <v>195</v>
       </c>
-      <c r="O3" s="20"/>
-      <c r="P3" s="21"/>
-      <c r="Q3" s="22"/>
+      <c r="O3" s="57"/>
+      <c r="P3" s="58"/>
+      <c r="Q3" s="59"/>
       <c r="R3" s="9"/>
     </row>
-    <row r="4" spans="1:18" ht="18" thickTop="1" thickBot="1">
+    <row r="4" spans="1:18" ht="17.25" thickTop="1" thickBot="1">
       <c r="A4" s="9"/>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
       <c r="E4" s="9"/>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
       <c r="K4" s="9"/>
@@ -1848,31 +1880,31 @@
       <c r="A5" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="44"/>
-      <c r="D5" s="45"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="32"/>
       <c r="E5" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="F5" s="46" t="s">
+      <c r="F5" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="47"/>
-      <c r="H5" s="48"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="35"/>
       <c r="I5" s="9"/>
       <c r="J5" s="9"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="42"/>
-      <c r="M5" s="42"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="28"/>
+      <c r="M5" s="28"/>
       <c r="N5" s="9"/>
       <c r="O5" s="9"/>
       <c r="P5" s="9"/>
       <c r="Q5" s="9"/>
       <c r="R5" s="9"/>
     </row>
-    <row r="6" spans="1:18" ht="17" thickTop="1">
+    <row r="6" spans="1:18" ht="16.5" thickTop="1">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
@@ -1892,26 +1924,26 @@
       <c r="Q6" s="9"/>
       <c r="R6" s="9"/>
     </row>
-    <row r="7" spans="1:18" ht="17" thickBot="1">
+    <row r="7" spans="1:18" ht="16.5" thickBot="1">
       <c r="A7" s="9"/>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="9"/>
-      <c r="F7" s="19" t="s">
+      <c r="F7" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
-      <c r="K7" s="23" t="s">
+      <c r="K7" s="60" t="s">
         <v>155</v>
       </c>
-      <c r="L7" s="23"/>
-      <c r="M7" s="23"/>
+      <c r="L7" s="60"/>
+      <c r="M7" s="60"/>
       <c r="N7" s="16" t="s">
         <v>196</v>
       </c>
@@ -1924,29 +1956,29 @@
       <c r="A8" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="B8" s="64">
+      <c r="B8" s="51">
         <v>4404</v>
       </c>
-      <c r="C8" s="65"/>
-      <c r="D8" s="66"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="53"/>
       <c r="E8" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="F8" s="49">
+      <c r="F8" s="36">
         <v>1323500</v>
       </c>
-      <c r="G8" s="50"/>
-      <c r="H8" s="51"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="38"/>
       <c r="I8" s="9"/>
       <c r="J8" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="K8" s="27">
+      <c r="K8" s="64">
         <f>SUMIFS(Datos!M:M,Datos!A:A,"I",Datos!B:B,Captura!$B$8,Datos!C:C,Captura!$F$5)</f>
         <v>1200</v>
       </c>
-      <c r="L8" s="28"/>
-      <c r="M8" s="29"/>
+      <c r="L8" s="65"/>
+      <c r="M8" s="66"/>
       <c r="N8" s="9"/>
       <c r="O8" s="10"/>
       <c r="P8" s="10"/>
@@ -1973,14 +2005,14 @@
       <c r="Q9" s="10"/>
       <c r="R9" s="10"/>
     </row>
-    <row r="10" spans="1:18" ht="32" customHeight="1" thickTop="1" thickBot="1">
+    <row r="10" spans="1:18" ht="32.1" customHeight="1" thickTop="1" thickBot="1">
       <c r="A10" s="9"/>
-      <c r="B10" s="24" t="str">
+      <c r="B10" s="61" t="str">
         <f>+VLOOKUP(B8,Listas!F2:G24,2,0)</f>
         <v>Liceo Miguel Ángel Cerda Leiva</v>
       </c>
-      <c r="C10" s="25"/>
-      <c r="D10" s="26"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="63"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
@@ -1996,26 +2028,26 @@
       <c r="Q10" s="9"/>
       <c r="R10" s="9"/>
     </row>
-    <row r="11" spans="1:18" ht="18" thickTop="1" thickBot="1">
+    <row r="11" spans="1:18" ht="17.25" thickTop="1" thickBot="1">
       <c r="A11" s="9"/>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
       <c r="E11" s="9"/>
-      <c r="F11" s="19" t="s">
+      <c r="F11" s="29" t="s">
         <v>157</v>
       </c>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
-      <c r="K11" s="23" t="s">
+      <c r="K11" s="60" t="s">
         <v>156</v>
       </c>
-      <c r="L11" s="23"/>
-      <c r="M11" s="23"/>
+      <c r="L11" s="60"/>
+      <c r="M11" s="60"/>
       <c r="N11" s="9"/>
       <c r="O11" s="9"/>
       <c r="P11" s="9"/>
@@ -2026,34 +2058,34 @@
       <c r="A12" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="B12" s="24">
+      <c r="B12" s="61">
         <v>2152205001</v>
       </c>
-      <c r="C12" s="25"/>
-      <c r="D12" s="26"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="63"/>
       <c r="E12" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="F12" s="61"/>
-      <c r="G12" s="62"/>
-      <c r="H12" s="63"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="50"/>
       <c r="I12" s="9"/>
       <c r="J12" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="K12" s="27">
+      <c r="K12" s="64">
         <f>SUMIFS(Datos!M:M,Datos!A:A,"G",Datos!B:B,Captura!B8,Datos!C:C,Captura!F5)</f>
         <v>620</v>
       </c>
-      <c r="L12" s="28"/>
-      <c r="M12" s="29"/>
+      <c r="L12" s="65"/>
+      <c r="M12" s="66"/>
       <c r="N12" s="9"/>
       <c r="O12" s="9"/>
       <c r="P12" s="9"/>
       <c r="Q12" s="9"/>
       <c r="R12" s="9"/>
     </row>
-    <row r="13" spans="1:18" ht="10" customHeight="1" thickTop="1" thickBot="1">
+    <row r="13" spans="1:18" ht="9.9499999999999993" customHeight="1" thickTop="1" thickBot="1">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -2073,14 +2105,14 @@
       <c r="Q13" s="9"/>
       <c r="R13" s="9"/>
     </row>
-    <row r="14" spans="1:18" ht="32" customHeight="1" thickTop="1" thickBot="1">
+    <row r="14" spans="1:18" ht="32.1" customHeight="1" thickTop="1" thickBot="1">
       <c r="A14" s="9"/>
-      <c r="B14" s="67" t="str">
+      <c r="B14" s="54" t="str">
         <f>+VLOOKUP(B12,Listas!D1:E142,2,0)</f>
         <v>ELECTRICIDAD</v>
       </c>
-      <c r="C14" s="68"/>
-      <c r="D14" s="69"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="56"/>
       <c r="E14" s="9"/>
       <c r="F14" s="18"/>
       <c r="G14" s="18"/>
@@ -2088,7 +2120,7 @@
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
+      <c r="L14" s="70"/>
       <c r="M14" s="9"/>
       <c r="N14" s="9"/>
       <c r="O14" s="9"/>
@@ -2096,7 +2128,7 @@
       <c r="Q14" s="9"/>
       <c r="R14" s="9"/>
     </row>
-    <row r="15" spans="1:18" ht="32" customHeight="1" thickTop="1">
+    <row r="15" spans="1:18" ht="32.1" customHeight="1" thickTop="1">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -2118,13 +2150,13 @@
       <c r="Q15" s="9"/>
       <c r="R15" s="9"/>
     </row>
-    <row r="16" spans="1:18" ht="17" thickBot="1">
+    <row r="16" spans="1:18" ht="16.5" thickBot="1">
       <c r="A16" s="9"/>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
@@ -2142,67 +2174,67 @@
       <c r="Q16" s="9"/>
       <c r="R16" s="9"/>
     </row>
-    <row r="17" spans="1:18" ht="17" thickTop="1">
+    <row r="17" spans="1:18" ht="16.5" thickTop="1">
       <c r="A17" s="9"/>
-      <c r="B17" s="52"/>
-      <c r="C17" s="53"/>
-      <c r="D17" s="53"/>
-      <c r="E17" s="53"/>
-      <c r="F17" s="53"/>
-      <c r="G17" s="53"/>
-      <c r="H17" s="54"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="41"/>
       <c r="I17" s="9"/>
       <c r="J17" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="K17" s="33">
+      <c r="K17" s="19">
         <f>+K8-K12</f>
         <v>580</v>
       </c>
-      <c r="L17" s="34"/>
-      <c r="M17" s="35"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="21"/>
       <c r="N17" s="9"/>
       <c r="O17" s="9"/>
       <c r="P17" s="9"/>
       <c r="Q17" s="9"/>
       <c r="R17" s="9"/>
     </row>
-    <row r="18" spans="1:18" ht="17" thickBot="1">
+    <row r="18" spans="1:18" ht="16.5" thickBot="1">
       <c r="A18" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="B18" s="55"/>
-      <c r="C18" s="56"/>
-      <c r="D18" s="56"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="57"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="44"/>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
-      <c r="K18" s="36"/>
-      <c r="L18" s="37"/>
-      <c r="M18" s="38"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="24"/>
       <c r="N18" s="9"/>
       <c r="O18" s="9"/>
       <c r="P18" s="9"/>
       <c r="Q18" s="9"/>
       <c r="R18" s="9"/>
     </row>
-    <row r="19" spans="1:18" ht="18" thickTop="1" thickBot="1">
+    <row r="19" spans="1:18" ht="17.25" thickTop="1" thickBot="1">
       <c r="A19" s="9"/>
-      <c r="B19" s="58"/>
-      <c r="C19" s="59"/>
-      <c r="D19" s="59"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="60"/>
+      <c r="B19" s="45"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="47"/>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
-      <c r="K19" s="12" t="str">
-        <f>[1]!NumLetras(K17,"PESO","PESOS")</f>
-        <v xml:space="preserve"> QUINIENTOS OCHENTA 00/100 PESOS</v>
+      <c r="K19" s="12" t="e">
+        <f ca="1">[1]!NumLetras(K17,"PESO","PESOS")</f>
+        <v>#NAME?</v>
       </c>
       <c r="L19" s="9"/>
       <c r="M19" s="9"/>
@@ -2212,7 +2244,7 @@
       <c r="Q19" s="9"/>
       <c r="R19" s="9"/>
     </row>
-    <row r="20" spans="1:18" ht="17" thickTop="1">
+    <row r="20" spans="1:18" ht="16.5" thickTop="1">
       <c r="A20" s="9"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
@@ -2260,7 +2292,7 @@
     <row r="27" spans="1:18" ht="30" hidden="1" customHeight="1"/>
     <row r="28" spans="1:18" hidden="1"/>
     <row r="29" spans="1:18" hidden="1"/>
-    <row r="30" spans="1:18" ht="32" hidden="1" customHeight="1"/>
+    <row r="30" spans="1:18" ht="32.1" hidden="1" customHeight="1"/>
     <row r="31" spans="1:18" hidden="1"/>
     <row r="32" spans="1:18" hidden="1"/>
     <row r="33" hidden="1"/>
@@ -2269,6 +2301,19 @@
     <row r="36" hidden="1"/>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="K11:M11"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="B10:D10"/>
     <mergeCell ref="F15:H15"/>
     <mergeCell ref="K17:M18"/>
     <mergeCell ref="B2:H2"/>
@@ -2285,23 +2330,10 @@
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="B14:D14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="K7:M7"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="K11:M11"/>
-    <mergeCell ref="K12:M12"/>
-    <mergeCell ref="K8:M8"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="B10:D10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="2" scale="61" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="2" scale="61" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
@@ -2340,21 +2372,21 @@
   <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="45.33203125" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="12" width="26.33203125" customWidth="1"/>
-    <col min="13" max="13" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="23.33203125" customWidth="1"/>
+    <col min="4" max="4" width="24.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="45.375" customWidth="1"/>
+    <col min="6" max="6" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="12" width="26.375" customWidth="1"/>
+    <col min="13" max="13" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -2502,19 +2534,19 @@
   <sheetPr codeName="Hoja3"/>
   <dimension ref="A1:J142"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="18.83203125" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" customWidth="1"/>
-    <col min="3" max="3" width="17.83203125" customWidth="1"/>
+    <col min="1" max="1" width="18.875" customWidth="1"/>
+    <col min="2" max="2" width="18.625" customWidth="1"/>
+    <col min="3" max="3" width="17.875" customWidth="1"/>
     <col min="4" max="4" width="33.5" style="5" customWidth="1"/>
-    <col min="5" max="5" width="86.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="39.1640625" customWidth="1"/>
-    <col min="9" max="9" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="86.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="39.125" customWidth="1"/>
+    <col min="9" max="9" width="17.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -3908,7 +3940,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="125" spans="4:5" ht="16" customHeight="1">
+    <row r="125" spans="4:5" ht="15.95" customHeight="1">
       <c r="D125" s="5">
         <v>1150503003001000</v>
       </c>
@@ -3916,7 +3948,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="126" spans="4:5" ht="16" customHeight="1">
+    <row r="126" spans="4:5" ht="15.95" customHeight="1">
       <c r="D126" s="5">
         <v>1150503003001000</v>
       </c>
@@ -3924,7 +3956,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="127" spans="4:5" ht="16" customHeight="1">
+    <row r="127" spans="4:5" ht="15.95" customHeight="1">
       <c r="D127" s="5">
         <v>1150503003002000</v>
       </c>
@@ -3932,7 +3964,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="128" spans="4:5" ht="16" customHeight="1">
+    <row r="128" spans="4:5" ht="15.95" customHeight="1">
       <c r="D128" s="5">
         <v>1150503003002000</v>
       </c>
@@ -3940,7 +3972,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="129" spans="4:5" ht="16" customHeight="1">
+    <row r="129" spans="4:5" ht="15.95" customHeight="1">
       <c r="D129" s="5">
         <v>1150503003002990</v>
       </c>
@@ -3948,7 +3980,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="130" spans="4:5" ht="16" customHeight="1">
+    <row r="130" spans="4:5" ht="15.95" customHeight="1">
       <c r="D130" s="5">
         <v>1150503004001000</v>
       </c>
@@ -3956,7 +3988,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="131" spans="4:5" ht="16" customHeight="1">
+    <row r="131" spans="4:5" ht="15.95" customHeight="1">
       <c r="D131" s="5">
         <v>1150503004001000</v>
       </c>
@@ -3964,7 +3996,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="132" spans="4:5" ht="16" customHeight="1">
+    <row r="132" spans="4:5" ht="15.95" customHeight="1">
       <c r="D132" s="5">
         <v>1150503004001000</v>
       </c>
@@ -3972,7 +4004,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="133" spans="4:5" ht="16" customHeight="1">
+    <row r="133" spans="4:5" ht="15.95" customHeight="1">
       <c r="D133" s="5">
         <v>1150503004001000</v>
       </c>
@@ -3980,7 +4012,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="134" spans="4:5" ht="16" customHeight="1">
+    <row r="134" spans="4:5" ht="15.95" customHeight="1">
       <c r="D134" s="5">
         <v>1150503004001000</v>
       </c>
@@ -3988,7 +4020,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="135" spans="4:5" ht="16" customHeight="1">
+    <row r="135" spans="4:5" ht="15.95" customHeight="1">
       <c r="D135" s="5">
         <v>1150503007999</v>
       </c>
@@ -3996,7 +4028,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="136" spans="4:5" ht="16" customHeight="1">
+    <row r="136" spans="4:5" ht="15.95" customHeight="1">
       <c r="D136" s="5">
         <v>1150801001</v>
       </c>
@@ -4004,7 +4036,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="137" spans="4:5" ht="16" customHeight="1">
+    <row r="137" spans="4:5" ht="15.95" customHeight="1">
       <c r="D137" s="5">
         <v>1150801002</v>
       </c>
@@ -4012,7 +4044,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="138" spans="4:5" ht="16" customHeight="1">
+    <row r="138" spans="4:5" ht="15.95" customHeight="1">
       <c r="D138" s="5">
         <v>1150899999002</v>
       </c>
@@ -4020,7 +4052,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="139" spans="4:5" ht="16" customHeight="1">
+    <row r="139" spans="4:5" ht="15.95" customHeight="1">
       <c r="D139" s="5">
         <v>1150899999004</v>
       </c>
@@ -4028,7 +4060,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="140" spans="4:5" ht="16" customHeight="1">
+    <row r="140" spans="4:5" ht="15.95" customHeight="1">
       <c r="D140" s="5">
         <v>1150899999005</v>
       </c>
@@ -4036,7 +4068,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="141" spans="4:5" ht="17" customHeight="1">
+    <row r="141" spans="4:5" ht="17.100000000000001" customHeight="1">
       <c r="D141" s="5">
         <v>1150899999007</v>
       </c>
@@ -4044,7 +4076,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="142" spans="4:5" ht="17" customHeight="1">
+    <row r="142" spans="4:5" ht="17.100000000000001" customHeight="1">
       <c r="D142" s="14">
         <v>11515</v>
       </c>
